--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431559.455653193</v>
+        <v>1429671.874136791</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>128.0041052504326</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>216.2839705651436</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>49.92693022021933</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.80411717320133</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>34.29171418768014</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.283679164003455</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544525</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609784</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>116.6410787823729</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.44745406739199</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>55.8981567244341</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>87.32539824465964</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88.18589455074775</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231522</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>88.3592464083459</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.2865509712974</v>
+        <v>204.1291651532048</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>16.5157019363693</v>
+        <v>7.041899431892673</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571474</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789452</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463135</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.680433881714</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.680433881714</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.680433881714</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.214675620634</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2621.589376701857</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2402.95470967392</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.192924312011</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2149.192924312011</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1796.424269041897</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822953</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757906</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775463</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>569.2417729283428</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549069</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,16 +5106,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>534.3905543375957</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>365.4543714096889</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811259</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>755.1831334811259</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>755.1831334811259</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.3905543375957</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.6713633309776</v>
+        <v>454.2145238948137</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>454.2145238948137</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>304.097884482478</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>304.097884482478</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>304.097884482478</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344996</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344996</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909695</v>
+        <v>454.2145238948137</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.1345339792614</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>654.1345339792614</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>504.0178945669256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909233</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227915</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227915</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227915</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>874.9271131227915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>654.1345339792614</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,13 +5771,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.1496160432033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>631.2134331152964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>481.0967937029607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>333.1837001205676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>186.2937526226573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>186.2937526226573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>186.2937526226573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.78763177146</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.78763177146</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>981.798080873443</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.798080873443</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -6011,7 +6011,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>444.893394385083</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>444.893394385083</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>444.893394385083</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>444.893394385083</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>298.0034468871726</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6148,7 +6148,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286131</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286131</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.893394385083</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6221,7 +6221,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6236,22 +6236,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W28" t="n">
-        <v>966.1645591486849</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X28" t="n">
-        <v>966.1645591486849</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.3719800051548</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,16 +6449,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>672.900203459292</v>
+        <v>607.5569798833421</v>
       </c>
       <c r="C31" t="n">
-        <v>559.724885812756</v>
+        <v>494.3816622368061</v>
       </c>
       <c r="D31" t="n">
-        <v>465.3691116817913</v>
+        <v>400.0258881058411</v>
       </c>
       <c r="E31" t="n">
-        <v>373.2168833807691</v>
+        <v>307.8736598048188</v>
       </c>
       <c r="F31" t="n">
-        <v>282.0878011642297</v>
+        <v>216.7445775882792</v>
       </c>
       <c r="G31" t="n">
-        <v>169.6733447654213</v>
+        <v>104.3301211894704</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="U31" t="n">
-        <v>1568.628130167072</v>
+        <v>1503.284906591123</v>
       </c>
       <c r="V31" t="n">
-        <v>1369.704507242556</v>
+        <v>1304.361283666607</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.048202486966</v>
+        <v>1070.704978911017</v>
       </c>
       <c r="X31" t="n">
-        <v>963.8195168703198</v>
+        <v>898.4762932943704</v>
       </c>
       <c r="Y31" t="n">
-        <v>798.7878030081607</v>
+        <v>733.4445794322111</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,25 +6926,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,52 +7409,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>230.7151863772039</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208069</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>171.2966883299264</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9743942358395</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241345</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.3845261145453</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>110.5954117389435</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>59.10856440190953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>22.23335091352419</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.34209567542516</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>78.13432205503169</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>11.2364473652936</v>
+        <v>82.39383318338616</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>77.19486980260957</v>
+        <v>86.66867230708617</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977418.8366576801</v>
+        <v>977418.8366576799</v>
       </c>
     </row>
     <row r="12">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
@@ -26338,19 +26338,19 @@
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>467845.4579470612</v>
+        <v>467845.4579470613</v>
       </c>
       <c r="L2" t="n">
         <v>472099.0176719628</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="N2" t="n">
         <v>472099.0176719628</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719628</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086673</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284553</v>
       </c>
     </row>
     <row r="4">
@@ -26427,28 +26427,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106731</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,25 +26485,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925155</v>
+        <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.071822029</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141181</v>
+        <v>-189736.0104400905</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.485162778</v>
+        <v>335424.0260368059</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627779</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.2659701848</v>
+        <v>159000.8068442128</v>
       </c>
       <c r="K6" t="n">
-        <v>286715.4140129253</v>
+        <v>286696.9202749913</v>
       </c>
       <c r="L6" t="n">
-        <v>319447.6102228794</v>
+        <v>319447.6102228793</v>
       </c>
       <c r="M6" t="n">
-        <v>194989.5017899092</v>
+        <v>194989.501789909</v>
       </c>
       <c r="N6" t="n">
-        <v>329790.5170237462</v>
+        <v>329790.517023746</v>
       </c>
       <c r="O6" t="n">
         <v>329790.5170237462</v>
       </c>
       <c r="P6" t="n">
-        <v>285627.9117209004</v>
+        <v>285627.9117209007</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,7 +26719,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108341</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>285.7800647703624</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>34.94019694314571</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>96.50703242634984</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.30176537689272</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>99.6115956357702</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>379.4924558331148</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.4685793061315</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831826</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029393</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768312</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>504.4912617279393</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
